--- a/documents/flowchart.xlsx
+++ b/documents/flowchart.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Comraids\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE03E50-0A3A-49A5-AFF2-00755C3A813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A5881-87F1-4872-B4D3-C5A9241D778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E2146DCF-6E15-4784-B67B-5294CCF5551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend" sheetId="1" r:id="rId1"/>
     <sheet name="Backend" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>/api/users/…</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,50 @@
   </si>
   <si>
     <t>DELETE …/:cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 안한 사람?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기가 가능한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속한 달력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달력(있으면)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,6 +217,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -537,6 +588,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -567,7 +624,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>달력</a:t>
+            <a:t>달력 고르기</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -1121,6 +1178,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2065,6 +2128,665 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>477907</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B722BDE-4898-41CD-A9AF-8D9984A415C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10999304" y="3727174"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>달력 생성</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세부설정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>477907</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="직사각형 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C5CB85-527D-48DA-AC20-87BCA2F55F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10999304" y="4555435"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>일정 일괄 등록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>477907</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="직사각형 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E781B6-3AAF-4730-B004-B0FEC8D70885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10999304" y="5383696"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>일일 일정 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>수정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>477907</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D09668-6878-4396-A057-33B27D1B055A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13061674" y="3727174"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>달력 참가 화면</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>정보입력</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>477906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E911A16A-D68C-4291-B47C-CDDD129EE7B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15124043" y="3727174"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>헤더</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>477906</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88E6BD5-9067-4713-A6AE-6BB397556464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15124043" y="4555435"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>왼쪽 메뉴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>달력 전환</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>477906</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE101E6-700B-4170-96A4-EBB926411FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15124043" y="5383696"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오른쪽 상태바</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>477907</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A43AEE-3216-498A-B214-3736C5F352F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13061674" y="2484783"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>마이페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>477906</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2621215-E4AB-4E58-BF67-243212194331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15124043" y="2484783"/>
+          <a:ext cx="1852820" cy="675861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원 정보 수정</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2906,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E525F43-7B4A-4103-9BA1-AE4B0CB8B4AC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2978,4 +3700,68 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F19A040-8F5F-4732-B454-2C8CBF224CDB}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>